--- a/pdfs/Tableau_de_synthèse_Epreuve_E4 _BTS SIO_2023.xlsx
+++ b/pdfs/Tableau_de_synthèse_Epreuve_E4 _BTS SIO_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\E4\alexandrelespagnolxyz\pdfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276004DB-290D-4AC7-8F41-8B9D29AAD12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE78319-25FC-4779-AD76-DF5C217A5AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>N° candidat : 081295544FK</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio : https://alexandrelespagnol.wixsite.com/mon-portfolio</t>
+    <t>Adresse URL du portfolio : https://lespagnolalexandre.github.io/Portfolio/</t>
   </si>
 </sst>
 </file>
@@ -747,9 +747,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,63 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:AQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1225,56 +1225,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="26" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="46"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
@@ -1286,22 +1286,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1324,8 +1324,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1381,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1431,7 +1431,7 @@
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1484,7 +1484,7 @@
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="A11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
@@ -1735,7 +1735,7 @@
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1916,16 +1916,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1966,7 +1966,7 @@
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2017,7 +2017,7 @@
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
         <v>25</v>
@@ -2068,7 +2068,7 @@
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
         <v>25</v>
@@ -2170,7 +2170,7 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
         <v>25</v>
@@ -2219,7 +2219,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2270,7 +2270,7 @@
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
@@ -2365,16 +2365,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2415,7 +2415,7 @@
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2464,7 +2464,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="29"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2825,6 +2825,11 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
@@ -2835,11 +2840,6 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="B9:B18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2851,17 +2851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8ce3911-0485-47af-ac12-9376d5ac774e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="79176ac7-4d0f-41bd-b62c-b934cfcedc14" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A2135F6BDEAAA479580229BE601C149" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="554828fc1c9d728f07ff9000b4f68594">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a8ce3911-0485-47af-ac12-9376d5ac774e" xmlns:ns3="79176ac7-4d0f-41bd-b62c-b934cfcedc14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db23cae9ec1efa9ec99c90ad2e3f3fea" ns2:_="" ns3:_="">
     <xsd:import namespace="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
@@ -3084,6 +3073,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a8ce3911-0485-47af-ac12-9376d5ac774e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="79176ac7-4d0f-41bd-b62c-b934cfcedc14" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3094,17 +3094,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B877387-EB45-4FFD-A13B-93089F73858D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
-    <ds:schemaRef ds:uri="79176ac7-4d0f-41bd-b62c-b934cfcedc14"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10BE3336-B036-4491-AABF-4873428DD522}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3123,6 +3112,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B877387-EB45-4FFD-A13B-93089F73858D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8ce3911-0485-47af-ac12-9376d5ac774e"/>
+    <ds:schemaRef ds:uri="79176ac7-4d0f-41bd-b62c-b934cfcedc14"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D11651-6960-4F77-B7BD-918207C221AB}">
   <ds:schemaRefs>
